--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hkcc\statistic\asm1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3745BC5D-1DC6-4FC8-B7D9-B91A39670243}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F73E142-CFA8-450B-BBA9-1296C87EF8C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10395" yWindow="4590" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{86E9345E-4241-4D87-AA3B-0FFCB8F90408}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Smart; 0005 45lb; Dog</t>
   </si>
@@ -117,18 +117,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>0 to 51</t>
-  </si>
-  <si>
-    <t>52 to 61</t>
-  </si>
-  <si>
-    <t>62 to 81</t>
-  </si>
-  <si>
-    <t>82 to 100</t>
   </si>
 </sst>
 </file>
@@ -737,7 +725,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -763,19 +751,31 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
+      <c r="B2" t="str">
+        <f>VLOOKUP(HLOOKUP($A2,$A$13:$K$14,2,0),$D$1:$E$5,2,TRUE)</f>
+        <v>B</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
+      </c>
+      <c r="F2" t="b">
+        <f>IF(AND(B2&gt;=0,B2&lt;=D2),E2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B11" si="0">VLOOKUP(HLOOKUP($A3,$A$13:$K$14,2,0),$D$1:$E$5,2,TRUE)</f>
+        <v>B</v>
+      </c>
+      <c r="D3">
+        <v>52</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -785,8 +785,12 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="D4">
+        <v>62</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -796,8 +800,12 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>30</v>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="D5">
+        <v>82</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
@@ -807,30 +815,54 @@
       <c r="A6" t="s">
         <v>16</v>
       </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>18</v>
       </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>15</v>
       </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>19</v>
       </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>20</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
       </c>
     </row>
     <row r="13" spans="1:11">
